--- a/EXCEL REPORT/COR-CLIENT-INVOICE.xlsx
+++ b/EXCEL REPORT/COR-CLIENT-INVOICE.xlsx
@@ -14,20 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
   <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Kode Invoice</t>
+  </si>
+  <si>
+    <t>Total Pcs</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Wholesaler</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>Sale Venue</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
     <t>COR JEWELRY CLIENT INVOICE REPORT</t>
+  </si>
+  <si>
+    <t>Total Weight (GR)</t>
+  </si>
+  <si>
+    <t>Gold Price / 1GR</t>
+  </si>
+  <si>
+    <t>Cor Jewelry Sold</t>
+  </si>
+  <si>
+    <t>CO70453(10MEI2014)</t>
+  </si>
+  <si>
+    <t>Andri Central</t>
+  </si>
+  <si>
+    <t>3 pc</t>
+  </si>
+  <si>
+    <t>G1932137, G1932136, G1932135</t>
+  </si>
+  <si>
+    <t>I30130 (24MEI2015)</t>
+  </si>
+  <si>
+    <t>SAERAH KO SONNY</t>
+  </si>
+  <si>
+    <t>G2432144</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$IDR]\ #,##0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -536,7 +597,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -555,6 +616,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -891,79 +955,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10" style="5" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1">
+    <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1">
+    <row r="4" spans="1:11" s="5" customFormat="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41769</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>501549</v>
+      </c>
+      <c r="I4" s="6">
+        <v>25.93</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42148</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>501549</v>
+      </c>
+      <c r="I5" s="6">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
